--- a/data/HR1_2/A_KPC_35_3/A_KPC_35_3_2020.xlsx
+++ b/data/HR1_2/A_KPC_35_3/A_KPC_35_3_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54341C14-ECAF-47A0-9D0C-737071D3D0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C1132-8AB3-46C6-BE4C-695027C18345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6266,7 +6266,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
